--- a/doc/table/关卡表.xlsx
+++ b/doc/table/关卡表.xlsx
@@ -283,12 +283,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -303,11 +309,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -615,7 +622,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,28 +636,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>71</v>
       </c>
     </row>

--- a/doc/table/关卡表.xlsx
+++ b/doc/table/关卡表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
   <si>
     <t>关卡id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t>次数上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,7 +639,7 @@
     <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +664,11 @@
       <c r="H1" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -686,8 +693,11 @@
       <c r="H2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -712,8 +722,11 @@
       <c r="H3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -738,8 +751,11 @@
       <c r="H4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -764,8 +780,11 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -790,8 +809,11 @@
       <c r="H6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -816,8 +838,11 @@
       <c r="H7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -842,8 +867,11 @@
       <c r="H8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -868,8 +896,11 @@
       <c r="H9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -894,8 +925,11 @@
       <c r="H10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -920,8 +954,11 @@
       <c r="H11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -946,8 +983,11 @@
       <c r="H12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -972,8 +1012,11 @@
       <c r="H13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -998,8 +1041,11 @@
       <c r="H14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1024,8 +1070,11 @@
       <c r="H15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1050,8 +1099,11 @@
       <c r="H16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1076,8 +1128,11 @@
       <c r="H17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1102,8 +1157,11 @@
       <c r="H18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1128,8 +1186,11 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1154,8 +1215,11 @@
       <c r="H20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1180,8 +1244,11 @@
       <c r="H21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1206,8 +1273,11 @@
       <c r="H22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1232,8 +1302,11 @@
       <c r="H23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1258,8 +1331,11 @@
       <c r="H24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1284,8 +1360,11 @@
       <c r="H25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1310,8 +1389,11 @@
       <c r="H26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1000</v>
       </c>
@@ -1336,8 +1418,11 @@
       <c r="H27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1001</v>
       </c>
@@ -1362,8 +1447,11 @@
       <c r="H28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1002</v>
       </c>
@@ -1388,8 +1476,11 @@
       <c r="H29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1003</v>
       </c>
@@ -1414,8 +1505,11 @@
       <c r="H30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1004</v>
       </c>
@@ -1440,8 +1534,11 @@
       <c r="H31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1005</v>
       </c>
@@ -1466,8 +1563,11 @@
       <c r="H32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1006</v>
       </c>
@@ -1492,8 +1592,11 @@
       <c r="H33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1007</v>
       </c>
@@ -1518,8 +1621,11 @@
       <c r="H34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1008</v>
       </c>
@@ -1544,8 +1650,11 @@
       <c r="H35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1009</v>
       </c>
@@ -1570,8 +1679,11 @@
       <c r="H36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1010</v>
       </c>
@@ -1596,8 +1708,11 @@
       <c r="H37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1011</v>
       </c>
@@ -1622,8 +1737,11 @@
       <c r="H38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1012</v>
       </c>
@@ -1648,8 +1766,11 @@
       <c r="H39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1013</v>
       </c>
@@ -1674,8 +1795,11 @@
       <c r="H40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1014</v>
       </c>
@@ -1700,8 +1824,11 @@
       <c r="H41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1015</v>
       </c>
@@ -1726,8 +1853,11 @@
       <c r="H42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1016</v>
       </c>
@@ -1752,8 +1882,11 @@
       <c r="H43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1017</v>
       </c>
@@ -1778,8 +1911,11 @@
       <c r="H44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1018</v>
       </c>
@@ -1804,8 +1940,11 @@
       <c r="H45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1019</v>
       </c>
@@ -1830,8 +1969,11 @@
       <c r="H46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1020</v>
       </c>
@@ -1856,8 +1998,11 @@
       <c r="H47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1021</v>
       </c>
@@ -1882,8 +2027,11 @@
       <c r="H48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1022</v>
       </c>
@@ -1908,8 +2056,11 @@
       <c r="H49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1023</v>
       </c>
@@ -1934,8 +2085,11 @@
       <c r="H50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1024</v>
       </c>
@@ -1959,6 +2113,9 @@
       </c>
       <c r="H51">
         <v>4</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/关卡表.xlsx
+++ b/doc/table/关卡表.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
   <si>
     <t>关卡id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +265,30 @@
   </si>
   <si>
     <t>复活上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +362,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -379,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,7 +439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,47 +650,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I51"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="2" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -675,26 +696,17 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -704,26 +716,17 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -733,25 +736,16 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
         <v>3</v>
       </c>
     </row>
@@ -762,26 +756,17 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -791,26 +776,17 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -820,26 +796,17 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -849,26 +816,17 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -878,26 +836,17 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -907,26 +856,17 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -936,26 +876,17 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -965,26 +896,17 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -994,26 +916,17 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
       <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -1023,26 +936,17 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
       <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -1052,26 +956,17 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
       <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -1081,1041 +976,717 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
       <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
       <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
       <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
       <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
       <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
       <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
       <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
       <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
       <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>24</v>
       </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
       <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
       <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1000</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
       <c r="F27">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1001</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
       <c r="F28">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1002</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
       <c r="F29">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1003</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
       <c r="F30">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1004</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
       <c r="F31">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1005</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
       <c r="F32">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1006</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E33">
-        <v>7</v>
-      </c>
       <c r="F33">
-        <v>2</v>
+        <v>1006</v>
       </c>
       <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1007</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E34">
-        <v>8</v>
-      </c>
       <c r="F34">
-        <v>2</v>
+        <v>1007</v>
       </c>
       <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1008</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E35">
-        <v>9</v>
-      </c>
       <c r="F35">
-        <v>2</v>
+        <v>1008</v>
       </c>
       <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1009</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
       <c r="F36">
-        <v>2</v>
+        <v>1009</v>
       </c>
       <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1010</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E37">
-        <v>11</v>
-      </c>
       <c r="F37">
-        <v>2</v>
+        <v>1010</v>
       </c>
       <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1011</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E38">
-        <v>12</v>
-      </c>
       <c r="F38">
-        <v>2</v>
+        <v>1011</v>
       </c>
       <c r="G38">
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1012</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E39">
-        <v>13</v>
-      </c>
       <c r="F39">
-        <v>3</v>
+        <v>1012</v>
       </c>
       <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1013</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E40">
-        <v>14</v>
-      </c>
       <c r="F40">
-        <v>3</v>
+        <v>1013</v>
       </c>
       <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
-      </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1014</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E41">
-        <v>15</v>
-      </c>
       <c r="F41">
-        <v>3</v>
+        <v>1014</v>
       </c>
       <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1015</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E42">
-        <v>16</v>
-      </c>
       <c r="F42">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1016</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E43">
-        <v>17</v>
-      </c>
       <c r="F43">
-        <v>3</v>
+        <v>1016</v>
       </c>
       <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1017</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E44">
-        <v>18</v>
-      </c>
       <c r="F44">
-        <v>3</v>
+        <v>1017</v>
       </c>
       <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <v>4</v>
-      </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1018</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E45">
-        <v>19</v>
-      </c>
       <c r="F45">
-        <v>3</v>
+        <v>1018</v>
       </c>
       <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1019</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E46">
-        <v>20</v>
-      </c>
       <c r="F46">
-        <v>3</v>
+        <v>1019</v>
       </c>
       <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>4</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1020</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E47">
-        <v>21</v>
-      </c>
       <c r="F47">
-        <v>4</v>
+        <v>1020</v>
       </c>
       <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1021</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E48">
-        <v>22</v>
-      </c>
       <c r="F48">
-        <v>4</v>
+        <v>1021</v>
       </c>
       <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
-      </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1022</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E49">
-        <v>23</v>
-      </c>
       <c r="F49">
-        <v>4</v>
+        <v>1022</v>
       </c>
       <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1023</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E50">
-        <v>24</v>
-      </c>
       <c r="F50">
-        <v>4</v>
+        <v>1023</v>
       </c>
       <c r="G50">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1024</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E51">
-        <v>25</v>
-      </c>
       <c r="F51">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="G51">
-        <v>3</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -2212,4 +1783,738 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1000</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1001</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1002</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>1003</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>1004</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1005</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1006</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1007</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1008</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1009</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1010</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1011</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>1012</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1013</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1014</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1015</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>1016</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>1017</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1018</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1019</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1020</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1021</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>1022</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>1023</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/table/关卡表.xlsx
+++ b/doc/table/关卡表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,27 +81,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>精英副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>普通副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜利奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -214,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A2" sqref="A2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,22 +473,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>10009</v>
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>10010</v>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>10011</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>10011</v>
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>10011</v>
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>10011</v>
@@ -664,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>10011</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>10011</v>
@@ -692,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>10011</v>
@@ -706,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>10011</v>
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>10011</v>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>10011</v>

--- a/doc/table/关卡表.xlsx
+++ b/doc/table/关卡表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>复活上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,22 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生坐标X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生坐标Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -147,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,7 +198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -407,16 +423,28 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -424,16 +452,28 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -441,16 +481,28 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -458,16 +510,28 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -475,16 +539,28 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -492,16 +568,28 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -509,16 +597,28 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -526,16 +626,28 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -543,16 +655,28 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -560,16 +684,28 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -577,16 +713,28 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -594,16 +742,28 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -611,16 +771,28 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -628,16 +800,28 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -645,12 +829,24 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E15">
+        <v>180</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
         <v>3</v>
       </c>
     </row>

--- a/doc/table/关卡表.xlsx
+++ b/doc/table/关卡表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,7 +461,7 @@
         <v>180</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -490,7 +490,7 @@
         <v>180</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -519,7 +519,7 @@
         <v>180</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -548,7 +548,7 @@
         <v>180</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -577,7 +577,7 @@
         <v>180</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -606,7 +606,7 @@
         <v>180</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -635,7 +635,7 @@
         <v>180</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -664,7 +664,7 @@
         <v>180</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -693,7 +693,7 @@
         <v>180</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -722,7 +722,7 @@
         <v>180</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -751,7 +751,7 @@
         <v>180</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -780,7 +780,7 @@
         <v>180</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>180</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>180</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -853,6 +853,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/table/关卡表.xlsx
+++ b/doc/table/关卡表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -107,7 +107,16 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -641,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -670,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -699,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -728,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -757,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -786,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>3</v>
@@ -815,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -844,9 +853,3779 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>10015</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>180</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>10016</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>180</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>10017</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>10018</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>180</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>10019</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>180</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>10020</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>180</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>10021</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>180</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>10022</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>180</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>10023</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>180</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>10024</v>
+      </c>
+      <c r="B25">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>180</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>10025</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>180</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>10026</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>180</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>10027</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>180</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>10028</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>180</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>10029</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>180</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>10030</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>180</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>10031</v>
+      </c>
+      <c r="B32">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>180</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>10032</v>
+      </c>
+      <c r="B33">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>180</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>10033</v>
+      </c>
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>180</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>10034</v>
+      </c>
+      <c r="B35">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>180</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>10035</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>180</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>10036</v>
+      </c>
+      <c r="B37">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>180</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>10037</v>
+      </c>
+      <c r="B38">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>180</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>10038</v>
+      </c>
+      <c r="B39">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>180</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>10039</v>
+      </c>
+      <c r="B40">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>180</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>10040</v>
+      </c>
+      <c r="B41">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>180</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>10041</v>
+      </c>
+      <c r="B42">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>180</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>10042</v>
+      </c>
+      <c r="B43">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>180</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>10043</v>
+      </c>
+      <c r="B44">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>180</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>10044</v>
+      </c>
+      <c r="B45">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>180</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>10045</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>180</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>10046</v>
+      </c>
+      <c r="B47">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>180</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>10047</v>
+      </c>
+      <c r="B48">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>180</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>10048</v>
+      </c>
+      <c r="B49">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>180</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>10049</v>
+      </c>
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>180</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>10050</v>
+      </c>
+      <c r="B51">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>180</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>10051</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>180</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>10052</v>
+      </c>
+      <c r="B53">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>180</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>12</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>10053</v>
+      </c>
+      <c r="B54">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>180</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>12</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>10054</v>
+      </c>
+      <c r="B55">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>180</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>10055</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="E56">
+        <v>180</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>10056</v>
+      </c>
+      <c r="B57">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>180</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>13</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>10057</v>
+      </c>
+      <c r="B58">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>50</v>
+      </c>
+      <c r="E58">
+        <v>180</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>13</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>10058</v>
+      </c>
+      <c r="B59">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>50</v>
+      </c>
+      <c r="E59">
+        <v>180</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>13</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>10059</v>
+      </c>
+      <c r="B60">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>180</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>13</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>10060</v>
+      </c>
+      <c r="B61">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>180</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>16</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>10061</v>
+      </c>
+      <c r="B62">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="E62">
+        <v>180</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>14</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>10062</v>
+      </c>
+      <c r="B63">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>50</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>180</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>14</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>10063</v>
+      </c>
+      <c r="B64">
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>180</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>10064</v>
+      </c>
+      <c r="B65">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>180</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>14</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>10065</v>
+      </c>
+      <c r="B66">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>180</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>14</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>10066</v>
+      </c>
+      <c r="B67">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>50</v>
+      </c>
+      <c r="E67">
+        <v>180</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>17</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>10067</v>
+      </c>
+      <c r="B68">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>180</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>15</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>10068</v>
+      </c>
+      <c r="B69">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+      <c r="E69">
+        <v>180</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>15</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>10069</v>
+      </c>
+      <c r="B70">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>50</v>
+      </c>
+      <c r="E70">
+        <v>180</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>10070</v>
+      </c>
+      <c r="B71">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>50</v>
+      </c>
+      <c r="E71">
+        <v>180</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>15</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>10071</v>
+      </c>
+      <c r="B72">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+      <c r="E72">
+        <v>180</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>15</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>10072</v>
+      </c>
+      <c r="B73">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>50</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73">
+        <v>180</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>18</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>10073</v>
+      </c>
+      <c r="B74">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>50</v>
+      </c>
+      <c r="D74">
+        <v>50</v>
+      </c>
+      <c r="E74">
+        <v>180</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>16</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>10074</v>
+      </c>
+      <c r="B75">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>50</v>
+      </c>
+      <c r="E75">
+        <v>180</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>16</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>10075</v>
+      </c>
+      <c r="B76">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>50</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
+      </c>
+      <c r="E76">
+        <v>180</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>16</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>10076</v>
+      </c>
+      <c r="B77">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
+      <c r="E77">
+        <v>180</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>16</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>10077</v>
+      </c>
+      <c r="B78">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <v>50</v>
+      </c>
+      <c r="E78">
+        <v>180</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>16</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>10078</v>
+      </c>
+      <c r="B79">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>50</v>
+      </c>
+      <c r="E79">
+        <v>180</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>19</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>10079</v>
+      </c>
+      <c r="B80">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>50</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
+      </c>
+      <c r="E80">
+        <v>180</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>17</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>10080</v>
+      </c>
+      <c r="B81">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>50</v>
+      </c>
+      <c r="E81">
+        <v>180</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>10081</v>
+      </c>
+      <c r="B82">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>50</v>
+      </c>
+      <c r="E82">
+        <v>180</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>17</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>10082</v>
+      </c>
+      <c r="B83">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>50</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="E83">
+        <v>180</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>17</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>10083</v>
+      </c>
+      <c r="B84">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>50</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
+      </c>
+      <c r="E84">
+        <v>180</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>17</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>10084</v>
+      </c>
+      <c r="B85">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>50</v>
+      </c>
+      <c r="E85">
+        <v>180</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>10085</v>
+      </c>
+      <c r="B86">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>50</v>
+      </c>
+      <c r="E86">
+        <v>180</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>18</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>10086</v>
+      </c>
+      <c r="B87">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <v>50</v>
+      </c>
+      <c r="E87">
+        <v>180</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>18</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>10087</v>
+      </c>
+      <c r="B88">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>50</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
+      </c>
+      <c r="E88">
+        <v>180</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>18</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>10088</v>
+      </c>
+      <c r="B89">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>50</v>
+      </c>
+      <c r="D89">
+        <v>50</v>
+      </c>
+      <c r="E89">
+        <v>180</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>18</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>10089</v>
+      </c>
+      <c r="B90">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>50</v>
+      </c>
+      <c r="D90">
+        <v>50</v>
+      </c>
+      <c r="E90">
+        <v>180</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>18</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>10090</v>
+      </c>
+      <c r="B91">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>50</v>
+      </c>
+      <c r="D91">
+        <v>50</v>
+      </c>
+      <c r="E91">
+        <v>180</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>21</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>10091</v>
+      </c>
+      <c r="B92">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>50</v>
+      </c>
+      <c r="D92">
+        <v>50</v>
+      </c>
+      <c r="E92">
+        <v>180</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>19</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>10092</v>
+      </c>
+      <c r="B93">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>50</v>
+      </c>
+      <c r="D93">
+        <v>50</v>
+      </c>
+      <c r="E93">
+        <v>180</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>19</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>10093</v>
+      </c>
+      <c r="B94">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>50</v>
+      </c>
+      <c r="D94">
+        <v>50</v>
+      </c>
+      <c r="E94">
+        <v>180</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>19</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>10094</v>
+      </c>
+      <c r="B95">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>50</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <v>180</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>19</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>10095</v>
+      </c>
+      <c r="B96">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>50</v>
+      </c>
+      <c r="D96">
+        <v>50</v>
+      </c>
+      <c r="E96">
+        <v>180</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>19</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>10096</v>
+      </c>
+      <c r="B97">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>50</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
+      </c>
+      <c r="E97">
+        <v>180</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>22</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>10097</v>
+      </c>
+      <c r="B98">
+        <v>102</v>
+      </c>
+      <c r="C98">
+        <v>50</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+      <c r="E98">
+        <v>180</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>20</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>10098</v>
+      </c>
+      <c r="B99">
+        <v>103</v>
+      </c>
+      <c r="C99">
+        <v>50</v>
+      </c>
+      <c r="D99">
+        <v>50</v>
+      </c>
+      <c r="E99">
+        <v>180</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>10099</v>
+      </c>
+      <c r="B100">
+        <v>104</v>
+      </c>
+      <c r="C100">
+        <v>50</v>
+      </c>
+      <c r="D100">
+        <v>50</v>
+      </c>
+      <c r="E100">
+        <v>180</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>20</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>10100</v>
+      </c>
+      <c r="B101">
+        <v>105</v>
+      </c>
+      <c r="C101">
+        <v>50</v>
+      </c>
+      <c r="D101">
+        <v>50</v>
+      </c>
+      <c r="E101">
+        <v>180</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>20</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>10101</v>
+      </c>
+      <c r="B102">
+        <v>106</v>
+      </c>
+      <c r="C102">
+        <v>50</v>
+      </c>
+      <c r="D102">
+        <v>50</v>
+      </c>
+      <c r="E102">
+        <v>180</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>20</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>10102</v>
+      </c>
+      <c r="B103">
+        <v>107</v>
+      </c>
+      <c r="C103">
+        <v>50</v>
+      </c>
+      <c r="D103">
+        <v>50</v>
+      </c>
+      <c r="E103">
+        <v>180</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>23</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>10103</v>
+      </c>
+      <c r="B104">
+        <v>108</v>
+      </c>
+      <c r="C104">
+        <v>50</v>
+      </c>
+      <c r="D104">
+        <v>50</v>
+      </c>
+      <c r="E104">
+        <v>180</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>21</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>10104</v>
+      </c>
+      <c r="B105">
+        <v>109</v>
+      </c>
+      <c r="C105">
+        <v>50</v>
+      </c>
+      <c r="D105">
+        <v>50</v>
+      </c>
+      <c r="E105">
+        <v>180</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>21</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>10105</v>
+      </c>
+      <c r="B106">
+        <v>110</v>
+      </c>
+      <c r="C106">
+        <v>50</v>
+      </c>
+      <c r="D106">
+        <v>50</v>
+      </c>
+      <c r="E106">
+        <v>180</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>21</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>10106</v>
+      </c>
+      <c r="B107">
+        <v>111</v>
+      </c>
+      <c r="C107">
+        <v>50</v>
+      </c>
+      <c r="D107">
+        <v>50</v>
+      </c>
+      <c r="E107">
+        <v>180</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>21</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>10107</v>
+      </c>
+      <c r="B108">
+        <v>112</v>
+      </c>
+      <c r="C108">
+        <v>50</v>
+      </c>
+      <c r="D108">
+        <v>50</v>
+      </c>
+      <c r="E108">
+        <v>180</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>21</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>10108</v>
+      </c>
+      <c r="B109">
+        <v>113</v>
+      </c>
+      <c r="C109">
+        <v>50</v>
+      </c>
+      <c r="D109">
+        <v>50</v>
+      </c>
+      <c r="E109">
+        <v>180</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>24</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>10109</v>
+      </c>
+      <c r="B110">
+        <v>114</v>
+      </c>
+      <c r="C110">
+        <v>50</v>
+      </c>
+      <c r="D110">
+        <v>50</v>
+      </c>
+      <c r="E110">
+        <v>180</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>22</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>10110</v>
+      </c>
+      <c r="B111">
+        <v>115</v>
+      </c>
+      <c r="C111">
+        <v>50</v>
+      </c>
+      <c r="D111">
+        <v>50</v>
+      </c>
+      <c r="E111">
+        <v>180</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>22</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>10111</v>
+      </c>
+      <c r="B112">
+        <v>116</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+      <c r="D112">
+        <v>50</v>
+      </c>
+      <c r="E112">
+        <v>180</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>22</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>10112</v>
+      </c>
+      <c r="B113">
+        <v>117</v>
+      </c>
+      <c r="C113">
+        <v>50</v>
+      </c>
+      <c r="D113">
+        <v>50</v>
+      </c>
+      <c r="E113">
+        <v>180</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>22</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>10113</v>
+      </c>
+      <c r="B114">
+        <v>118</v>
+      </c>
+      <c r="C114">
+        <v>50</v>
+      </c>
+      <c r="D114">
+        <v>50</v>
+      </c>
+      <c r="E114">
+        <v>180</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>22</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>10114</v>
+      </c>
+      <c r="B115">
+        <v>119</v>
+      </c>
+      <c r="C115">
+        <v>50</v>
+      </c>
+      <c r="D115">
+        <v>50</v>
+      </c>
+      <c r="E115">
+        <v>180</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>25</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>10115</v>
+      </c>
+      <c r="B116">
+        <v>120</v>
+      </c>
+      <c r="C116">
+        <v>50</v>
+      </c>
+      <c r="D116">
+        <v>50</v>
+      </c>
+      <c r="E116">
+        <v>180</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>23</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>10116</v>
+      </c>
+      <c r="B117">
+        <v>121</v>
+      </c>
+      <c r="C117">
+        <v>50</v>
+      </c>
+      <c r="D117">
+        <v>50</v>
+      </c>
+      <c r="E117">
+        <v>180</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>23</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>10117</v>
+      </c>
+      <c r="B118">
+        <v>122</v>
+      </c>
+      <c r="C118">
+        <v>50</v>
+      </c>
+      <c r="D118">
+        <v>50</v>
+      </c>
+      <c r="E118">
+        <v>180</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>23</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>10118</v>
+      </c>
+      <c r="B119">
+        <v>123</v>
+      </c>
+      <c r="C119">
+        <v>50</v>
+      </c>
+      <c r="D119">
+        <v>50</v>
+      </c>
+      <c r="E119">
+        <v>180</v>
+      </c>
+      <c r="F119">
+        <v>5</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>23</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>10119</v>
+      </c>
+      <c r="B120">
+        <v>124</v>
+      </c>
+      <c r="C120">
+        <v>50</v>
+      </c>
+      <c r="D120">
+        <v>50</v>
+      </c>
+      <c r="E120">
+        <v>180</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>23</v>
+      </c>
+      <c r="I120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>10120</v>
+      </c>
+      <c r="B121">
+        <v>125</v>
+      </c>
+      <c r="C121">
+        <v>50</v>
+      </c>
+      <c r="D121">
+        <v>50</v>
+      </c>
+      <c r="E121">
+        <v>180</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>26</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>10121</v>
+      </c>
+      <c r="B122">
+        <v>126</v>
+      </c>
+      <c r="C122">
+        <v>50</v>
+      </c>
+      <c r="D122">
+        <v>50</v>
+      </c>
+      <c r="E122">
+        <v>180</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>24</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>10122</v>
+      </c>
+      <c r="B123">
+        <v>127</v>
+      </c>
+      <c r="C123">
+        <v>50</v>
+      </c>
+      <c r="D123">
+        <v>50</v>
+      </c>
+      <c r="E123">
+        <v>180</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>24</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>10123</v>
+      </c>
+      <c r="B124">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>50</v>
+      </c>
+      <c r="D124">
+        <v>50</v>
+      </c>
+      <c r="E124">
+        <v>180</v>
+      </c>
+      <c r="F124">
+        <v>5</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>24</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>10124</v>
+      </c>
+      <c r="B125">
+        <v>129</v>
+      </c>
+      <c r="C125">
+        <v>50</v>
+      </c>
+      <c r="D125">
+        <v>50</v>
+      </c>
+      <c r="E125">
+        <v>180</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125">
+        <v>24</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>10125</v>
+      </c>
+      <c r="B126">
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>50</v>
+      </c>
+      <c r="D126">
+        <v>50</v>
+      </c>
+      <c r="E126">
+        <v>180</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>24</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>10126</v>
+      </c>
+      <c r="B127">
+        <v>131</v>
+      </c>
+      <c r="C127">
+        <v>50</v>
+      </c>
+      <c r="D127">
+        <v>50</v>
+      </c>
+      <c r="E127">
+        <v>180</v>
+      </c>
+      <c r="F127">
+        <v>5</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>27</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>10127</v>
+      </c>
+      <c r="B128">
+        <v>132</v>
+      </c>
+      <c r="C128">
+        <v>50</v>
+      </c>
+      <c r="D128">
+        <v>50</v>
+      </c>
+      <c r="E128">
+        <v>180</v>
+      </c>
+      <c r="F128">
+        <v>5</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>25</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>10128</v>
+      </c>
+      <c r="B129">
+        <v>133</v>
+      </c>
+      <c r="C129">
+        <v>50</v>
+      </c>
+      <c r="D129">
+        <v>50</v>
+      </c>
+      <c r="E129">
+        <v>180</v>
+      </c>
+      <c r="F129">
+        <v>5</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>25</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>10129</v>
+      </c>
+      <c r="B130">
+        <v>134</v>
+      </c>
+      <c r="C130">
+        <v>50</v>
+      </c>
+      <c r="D130">
+        <v>50</v>
+      </c>
+      <c r="E130">
+        <v>180</v>
+      </c>
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>25</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>10130</v>
+      </c>
+      <c r="B131">
+        <v>135</v>
+      </c>
+      <c r="C131">
+        <v>50</v>
+      </c>
+      <c r="D131">
+        <v>50</v>
+      </c>
+      <c r="E131">
+        <v>180</v>
+      </c>
+      <c r="F131">
+        <v>5</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+      <c r="H131">
+        <v>25</v>
+      </c>
+      <c r="I131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>10131</v>
+      </c>
+      <c r="B132">
+        <v>136</v>
+      </c>
+      <c r="C132">
+        <v>50</v>
+      </c>
+      <c r="D132">
+        <v>50</v>
+      </c>
+      <c r="E132">
+        <v>180</v>
+      </c>
+      <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>25</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>10132</v>
+      </c>
+      <c r="B133">
+        <v>137</v>
+      </c>
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>50</v>
+      </c>
+      <c r="E133">
+        <v>180</v>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>28</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>10133</v>
+      </c>
+      <c r="B134">
+        <v>138</v>
+      </c>
+      <c r="C134">
+        <v>50</v>
+      </c>
+      <c r="D134">
+        <v>50</v>
+      </c>
+      <c r="E134">
+        <v>180</v>
+      </c>
+      <c r="F134">
+        <v>5</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <v>26</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>10134</v>
+      </c>
+      <c r="B135">
+        <v>139</v>
+      </c>
+      <c r="C135">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>50</v>
+      </c>
+      <c r="E135">
+        <v>180</v>
+      </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>26</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>10135</v>
+      </c>
+      <c r="B136">
+        <v>140</v>
+      </c>
+      <c r="C136">
+        <v>50</v>
+      </c>
+      <c r="D136">
+        <v>50</v>
+      </c>
+      <c r="E136">
+        <v>180</v>
+      </c>
+      <c r="F136">
+        <v>5</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
+        <v>26</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>10136</v>
+      </c>
+      <c r="B137">
+        <v>141</v>
+      </c>
+      <c r="C137">
+        <v>50</v>
+      </c>
+      <c r="D137">
+        <v>50</v>
+      </c>
+      <c r="E137">
+        <v>180</v>
+      </c>
+      <c r="F137">
+        <v>5</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <v>26</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>10137</v>
+      </c>
+      <c r="B138">
+        <v>142</v>
+      </c>
+      <c r="C138">
+        <v>50</v>
+      </c>
+      <c r="D138">
+        <v>50</v>
+      </c>
+      <c r="E138">
+        <v>180</v>
+      </c>
+      <c r="F138">
+        <v>5</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="H138">
+        <v>26</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>10138</v>
+      </c>
+      <c r="B139">
+        <v>143</v>
+      </c>
+      <c r="C139">
+        <v>50</v>
+      </c>
+      <c r="D139">
+        <v>50</v>
+      </c>
+      <c r="E139">
+        <v>180</v>
+      </c>
+      <c r="F139">
+        <v>5</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>29</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>10139</v>
+      </c>
+      <c r="B140">
+        <v>144</v>
+      </c>
+      <c r="C140">
+        <v>50</v>
+      </c>
+      <c r="D140">
+        <v>50</v>
+      </c>
+      <c r="E140">
+        <v>180</v>
+      </c>
+      <c r="F140">
+        <v>5</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140">
+        <v>27</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>10140</v>
+      </c>
+      <c r="B141">
+        <v>145</v>
+      </c>
+      <c r="C141">
+        <v>50</v>
+      </c>
+      <c r="D141">
+        <v>50</v>
+      </c>
+      <c r="E141">
+        <v>180</v>
+      </c>
+      <c r="F141">
+        <v>5</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
+        <v>27</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>10141</v>
+      </c>
+      <c r="B142">
+        <v>146</v>
+      </c>
+      <c r="C142">
+        <v>50</v>
+      </c>
+      <c r="D142">
+        <v>50</v>
+      </c>
+      <c r="E142">
+        <v>180</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>27</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>10142</v>
+      </c>
+      <c r="B143">
+        <v>147</v>
+      </c>
+      <c r="C143">
+        <v>50</v>
+      </c>
+      <c r="D143">
+        <v>50</v>
+      </c>
+      <c r="E143">
+        <v>180</v>
+      </c>
+      <c r="F143">
+        <v>5</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+      <c r="H143">
+        <v>27</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>10143</v>
+      </c>
+      <c r="B144">
+        <v>148</v>
+      </c>
+      <c r="C144">
+        <v>50</v>
+      </c>
+      <c r="D144">
+        <v>50</v>
+      </c>
+      <c r="E144">
+        <v>180</v>
+      </c>
+      <c r="F144">
+        <v>5</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
+        <v>27</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>10144</v>
+      </c>
+      <c r="B145">
+        <v>149</v>
+      </c>
+      <c r="C145">
+        <v>50</v>
+      </c>
+      <c r="D145">
+        <v>50</v>
+      </c>
+      <c r="E145">
+        <v>180</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145">
+        <v>30</v>
+      </c>
+      <c r="I145">
         <v>3</v>
       </c>
     </row>
